--- a/src/test/resources/dataSheet.xlsx
+++ b/src/test/resources/dataSheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace1\CucumberDataDriven\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sseen\Downloads\Cucumber7DataDriven\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7804DE9-2C98-4FA1-A943-4EECCA96798D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFDCDC47-CBFE-4AD6-A471-B755F86226DE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6166DF7E-8EE5-4E1E-A6C7-BCC514D78611}"/>
   </bookViews>
@@ -20,22 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
   <si>
     <t>test_id</t>
   </si>
@@ -50,6 +40,12 @@
   </si>
   <si>
     <t>username</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>Cheeku</t>
   </si>
 </sst>
 </file>
@@ -100,11 +96,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -419,15 +419,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3878E1B2-7959-424A-BD11-96047DBBDD98}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -437,8 +440,11 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -448,8 +454,11 @@
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -458,6 +467,9 @@
       </c>
       <c r="C3" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
